--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R208_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1648" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1521,10 +1533,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1568,28 +1580,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1614,28 +1626,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1694,10 +1706,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1741,28 +1753,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1787,28 +1799,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1867,10 +1879,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1914,28 +1926,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1960,28 +1972,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2040,10 +2052,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2087,28 +2099,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="2">
+      <c r="A68" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s" s="2">
+      <c r="C68" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D68" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2133,28 +2145,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="2">
+      <c r="C70" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="2">
+      <c r="D70" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="2">
+      <c r="I70" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2213,10 +2225,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2260,28 +2272,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2306,28 +2318,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2386,10 +2398,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2433,28 +2445,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2479,28 +2491,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2559,10 +2571,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K84" s="2" t="s">
+      <c r="J84" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2606,28 +2618,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s" s="2">
+      <c r="C86" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2652,28 +2664,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2732,10 +2744,10 @@
       <c r="I90">
         <f>((C90-C89)^2+(D90- D89)^2)^.5</f>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="J90" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L90" t="n">
@@ -2779,28 +2791,28 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="2">
+      <c r="A92" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C92" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D92" t="s" s="2">
+      <c r="C92" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D92" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E92" t="s" s="2">
+      <c r="E92" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F92" t="s" s="2">
+      <c r="F92" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G92" t="s" s="2">
+      <c r="G92" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H92" t="s" s="2">
+      <c r="H92" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2825,28 +2837,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I94" t="s" s="2">
+      <c r="I94" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2905,10 +2917,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2952,28 +2964,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2998,28 +3010,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3078,10 +3090,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3125,28 +3137,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3171,28 +3183,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3251,10 +3263,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3298,28 +3310,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3344,28 +3356,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3424,10 +3436,10 @@
       <c r="I114">
         <f>((C114-C113)^2+(D114- D113)^2)^.5</f>
       </c>
-      <c r="J114" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K114" s="2" t="s">
+      <c r="J114" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K114" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L114" t="n">
@@ -3471,28 +3483,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="2">
+      <c r="A116" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C116" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D116" t="s" s="2">
+      <c r="C116" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D116" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3517,28 +3529,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I118" t="s" s="2">
+      <c r="I118" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3597,10 +3609,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3644,28 +3656,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3690,28 +3702,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3770,10 +3782,10 @@
       <c r="I126">
         <f>((C126-C125)^2+(D126- D125)^2)^.5</f>
       </c>
-      <c r="J126" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K126" s="2" t="s">
+      <c r="J126" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K126" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L126" t="n">
@@ -3817,28 +3829,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="2">
+      <c r="A128" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C128" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D128" t="s" s="2">
+      <c r="C128" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D128" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3863,28 +3875,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="B130" t="s" s="2">
+      <c r="B130" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C130" t="s" s="2">
+      <c r="C130" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D130" t="s" s="2">
+      <c r="D130" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E130" t="s" s="2">
+      <c r="E130" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F130" t="s" s="2">
+      <c r="F130" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G130" t="s" s="2">
+      <c r="G130" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H130" t="s" s="2">
+      <c r="H130" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I130" t="s" s="2">
+      <c r="I130" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5016,10 +5028,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5063,28 +5075,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5109,28 +5121,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5189,10 +5201,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5236,28 +5248,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5282,28 +5294,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5362,10 +5374,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5409,28 +5421,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5455,28 +5467,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5535,10 +5547,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5582,28 +5594,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5628,28 +5640,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5708,10 +5720,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5755,28 +5767,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5801,28 +5813,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5881,10 +5893,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5928,28 +5940,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5974,28 +5986,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6054,10 +6066,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6101,28 +6113,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6147,28 +6159,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6227,10 +6239,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
